--- a/Adaptive/Adaptive.xlsx
+++ b/Adaptive/Adaptive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="624" windowWidth="8520" windowHeight="2760" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="864" yWindow="624" windowWidth="8520" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Order 4" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="Kelvin A-Or, Order 3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
   <si>
     <t>nv</t>
     <phoneticPr fontId="1"/>
@@ -76,6 +75,10 @@
   </si>
   <si>
     <t>A-Ar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rk=100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -173,10 +176,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18634397219684576"/>
-          <c:y val="0.17579667153794154"/>
+          <c:x val="0.18634397219684579"/>
+          <c:y val="0.17579667153794157"/>
           <c:w val="0.68741535199559134"/>
-          <c:h val="0.64033145665952196"/>
+          <c:h val="0.64033145665952229"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -351,11 +354,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138969472"/>
-        <c:axId val="138971776"/>
+        <c:axId val="130372352"/>
+        <c:axId val="130374272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138969472"/>
+        <c:axId val="130372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -382,12 +385,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138971776"/>
+        <c:crossAx val="130374272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138971776"/>
+        <c:axId val="130374272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +425,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138969472"/>
+        <c:crossAx val="130372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -440,10 +443,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53324125230202635"/>
-          <c:y val="0.31277037392486695"/>
-          <c:w val="0.18134638196915787"/>
-          <c:h val="0.15337500751337388"/>
+          <c:x val="0.53324125230202646"/>
+          <c:y val="0.31277037392486712"/>
+          <c:w val="0.18134638196915792"/>
+          <c:h val="0.15337500751337391"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -451,7 +454,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -485,9 +488,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21746994703953842"/>
-          <c:y val="0.18262829451006152"/>
-          <c:w val="0.66422483444018132"/>
+          <c:x val="0.21746994703953845"/>
+          <c:y val="0.18262829451006157"/>
+          <c:w val="0.66422483444018166"/>
           <c:h val="0.62528536472003449"/>
         </c:manualLayout>
       </c:layout>
@@ -760,11 +763,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142626816"/>
-        <c:axId val="142628736"/>
+        <c:axId val="179187072"/>
+        <c:axId val="179201536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142626816"/>
+        <c:axId val="179187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -795,12 +798,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142628736"/>
+        <c:crossAx val="179201536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142628736"/>
+        <c:axId val="179201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +834,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142626816"/>
+        <c:crossAx val="179187072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -851,7 +854,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.58381933508311468"/>
           <c:y val="0.28910214348206481"/>
-          <c:w val="0.18134638196915784"/>
+          <c:w val="0.18134638196915787"/>
           <c:h val="0.23545460137795279"/>
         </c:manualLayout>
       </c:layout>
@@ -860,7 +863,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1159,11 +1162,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142654848"/>
-        <c:axId val="142669312"/>
+        <c:axId val="179239936"/>
+        <c:axId val="132191360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142654848"/>
+        <c:axId val="179239936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1195,12 +1198,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142669312"/>
-        <c:crossesAt val="1.0000000000000018E-5"/>
+        <c:crossAx val="132191360"/>
+        <c:crossesAt val="1.0000000000000023E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142669312"/>
+        <c:axId val="132191360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1229,8 +1232,8 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142654848"/>
-        <c:crossesAt val="1.0000000000000013E-3"/>
+        <c:crossAx val="179239936"/>
+        <c:crossesAt val="1.0000000000000015E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1241,9 +1244,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.5808702791461412"/>
-          <c:y val="0.19542155444855103"/>
+          <c:y val="0.195421554448551"/>
           <c:w val="0.16735084838533121"/>
-          <c:h val="0.2008875006695591"/>
+          <c:h val="0.20088750066955907"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1256,7 +1259,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1284,7 +1287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -1292,10 +1294,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18634397219684587"/>
-          <c:y val="0.17579667153794173"/>
+          <c:x val="0.18634397219684593"/>
+          <c:y val="0.17579667153794176"/>
           <c:w val="0.68741535199559134"/>
-          <c:h val="0.64033145665952307"/>
+          <c:h val="0.6403314566595234"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1640,3502 +1642,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="143851904"/>
-        <c:axId val="143853824"/>
+        <c:axId val="134549504"/>
+        <c:axId val="134551424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143851904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Refine no.</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143853824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="143853824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3.6"/>
-          <c:min val="3.4"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-                  <a:t>Bz0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-                  <a:t>　（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-                  <a:t>T)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143851904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43537656102595751"/>
-          <c:y val="0.4908874463211183"/>
-          <c:w val="0.2491696322657177"/>
-          <c:h val="0.3067500150267477"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Wm</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21746994703953848"/>
-          <c:y val="0.18262829451006163"/>
-          <c:w val="0.66422483444018199"/>
-          <c:h val="0.62528536472003449"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$L$4:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>14210.1850195037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13067.8183128491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12435.175853829</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12192.2114200222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12090.422494762501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12048.3721045903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12029.268694161299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12022.3915165459</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12016.782074774699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12014.987776393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12013.735210926699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12013.0579397689</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$M$4:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12862.8876232519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12417.034256237601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12171.3215108517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12077.2758028839</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12038.741366169899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12023.4882338568</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12017.050284168299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12015.0301471615</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12013.595765173101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12012.8159439801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12012.469485778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$L$4:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>12406.014063582001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12221.2739765642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12092.493121867101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12044.1346984702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12024.7815737449</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12017.2697394392</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12014.3182713805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12013.4175979553</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12012.751729014601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Ar, Order 3'!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Ar, Order 3'!$L$4:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11414.1760035426</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11633.1341877378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11850.8446768465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11942.808034556399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11982.6512901196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11999.1821781654</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12005.7442245599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12008.431435292399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="143897344"/>
-        <c:axId val="143899264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="143897344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Refine</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> no.</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143899264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="143899264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="15000"/>
-          <c:min val="10000"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Wm</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> (J)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143897344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.59271606840959823"/>
-          <c:y val="0.2022965879265092"/>
-          <c:w val="0.2491696322657177"/>
-          <c:h val="0.313939468503937"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Wm</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5637000001333899E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3242999997564697E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.58935000001656E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7198100000041394E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.121404900000015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24188890000004901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78485809999983702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5160475999996299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1388543000002702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6583233999999702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.4655526999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.409071200000199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$M$4:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.18298135887937911</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7880660533649985E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.521391236469977E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.49874061179736E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5135965963297607E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0129505710287394E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4226138936728318E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5009686384152918E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.831173670973003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3374411580575594E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2946949901676018E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.3087463632706405E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$K$4:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.9699999945005402E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0174099995056098E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19010100000013999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29051130000152597</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59830800000054296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.15991099999519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.34856350001064</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8273952000017699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5072265999915508</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.666961099996101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.489217900001599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$N$4:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.082041921215794E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3703645486298117E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3248345500292155E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4191498032746368E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2112028099727922E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.4139730313732748E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0544548685574928E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.372714329538843E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1786080237727257E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2941595955098062E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4099353988975272E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$J$4:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.3010000004432998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1825375000044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49952789999952002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2329088000115001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.49934250001388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1599761000106801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8994743999937</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.9798377999977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.634357899994903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$M$4:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.2786227277813058E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7406830114450475E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6859738920912407E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6601914448667286E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0490663430700942E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2371488266072831E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7800860297628287E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0302858892389736E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7595774838568071E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Ar, Order 3'!$J$4:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8839000000298201E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12485960000049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34572230000048798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.37257060000047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.56818099999873</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5365715999978402</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.0611489999973</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.175192299997398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Ar, Order 3'!$M$4:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.9783136487914825E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1555122572439004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3430977820304075E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7751353579117912E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4582307191867029E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0820535352117993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3577081263357434E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.120636476976671E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="143946880"/>
-        <c:axId val="143948800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="143946880"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-                  <a:t>Calculation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="0"/>
-                  <a:t> time (sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143948800"/>
-        <c:crossesAt val="1.0000000000000025E-5"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="143948800"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-                  <a:t>Relative error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143946880"/>
-        <c:crossesAt val="1.0000000000000018E-3"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.62080639480767752"/>
-          <c:y val="4.2021846149828283E-2"/>
-          <c:w val="0.22369542066027689"/>
-          <c:h val="0.29988247737689538"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Bz0</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18634397219684612"/>
-          <c:y val="0.17579667153794201"/>
-          <c:w val="0.48959817096532782"/>
-          <c:h val="0.6403314566595254"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$K$4:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.95709967048797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8099849565596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3343214758592001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.43331070673606</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3408002701205901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3404760798247999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3394950495788001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6430729049166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.33894395822582</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.59367125758371</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5929650345045001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5929399886819802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$L$4:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.5529638523933502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5920552230356999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5229379893396802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5190557422211701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5173157766182199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5166561623531298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5174526286037602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5190235622558399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5276257384788998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5129071971919301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5128922131870999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$K$4:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.5446655134443499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5333154752270999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5167795326614799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5146256201818198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5138140768984099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5134401389018799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5119164528565698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.51188020575563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5130658118776701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$K$4:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.48150912352604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4942751210830201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.50849086910653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5127541816034298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5151094727676502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.51581869585889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5138565509196602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.51480290073789</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$K$4:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.48150912352604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4942751210830201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.50849086910653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5127541816034298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5151094727676502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.51581869585889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5138565509196602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.51480290073789</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5138978010084498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3 *</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$K$4:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.48605301420098</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5522485054505402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5488924496844798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.49930372527492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5084492445136299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.50457386086399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5051442524220602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5158458463991802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5157723730334398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5146110062576099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5148750588512798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="144055680"/>
-        <c:axId val="144070144"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="144055680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Refine no.</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144070144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="144070144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3.6"/>
-          <c:min val="3.4"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-                  <a:t>Bz0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
-                  <a:t>　（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-                  <a:t>T)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144055680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.68212824010914064"/>
-          <c:y val="0.36366098321679263"/>
-          <c:w val="0.25170533621019725"/>
-          <c:h val="0.38343751878343452"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Wm</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21746994703953876"/>
-          <c:y val="0.18262829451006199"/>
-          <c:w val="0.48565335583052116"/>
-          <c:h val="0.62528536472003449"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$L$4:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>14210.1850195037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13067.8183128491</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12435.175853829</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12192.2114200222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12090.422494762501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12048.3721045903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12029.268694161299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12022.3915165459</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12016.782074774699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12014.987776393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12013.735210926699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12013.0579397689</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$M$4:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12862.8876232519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12417.034256237601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12171.3215108517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12077.2758028839</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12038.741366169899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12023.4882338568</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12017.050284168299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12015.0301471615</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12013.595765173101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12012.8159439801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12012.469485778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$L$4:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>12406.014063582001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12221.2739765642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12092.493121867101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12044.1346984702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12024.7815737449</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12017.2697394392</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12014.3182713805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12013.4175979553</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12012.751729014601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$L$4:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11462.397241957</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11639.4755786478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11854.8623337062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11944.1764089685</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11983.881873939899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000.2639444005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12006.8269137223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12009.2048260802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$L$4:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>11462.397241957</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11639.4755786478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11854.8623337062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11944.1764089685</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11983.881873939899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000.2639444005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12006.8269137223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12009.2048260802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12010.9891357126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3 *</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$L$4:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>13422.2535322601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13344.4663536589</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12560.3140221924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12204.0373057981</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12086.449011782301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12041.0620400608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12023.8194213268</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12018.694897429899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12015.3937633026</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12013.6675170117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12012.81195374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="144180736"/>
-        <c:axId val="144182656"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="144180736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Refine</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> no.</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144182656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="144182656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="15000"/>
-          <c:min val="10000"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Wm</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-                  <a:t> (J)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144180736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.71863174555103693"/>
-          <c:y val="0.19361603237095365"/>
-          <c:w val="0.25170533621019725"/>
-          <c:h val="0.39242433562992218"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Wm</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$J$4:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5637000001333899E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3242999997564697E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.58935000001656E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7198100000041394E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.121404900000015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24188890000004901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78485809999983702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5160475999996299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1388543000002702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6583233999999702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.4655526999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.409071200000199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$M$4:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.18298135887937911</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7880660533649985E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.521391236469977E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.49874061179736E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5135965963297607E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0129505710287394E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4226138936728318E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5009686384152918E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.831173670973003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3374411580575594E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2946949901676018E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.3087463632706405E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$K$4:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.9699999945005402E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0174099995056098E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19010100000013999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29051130000152597</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59830800000054296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.15991099999519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.34856350001064</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8273952000017699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5072265999915508</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.666961099996101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.489217900001599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$N$4:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.082041921215794E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3703645486298117E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3248345500292155E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4191498032746368E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2112028099727922E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.4139730313732748E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0544548685574928E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.372714329538843E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1786080237727257E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2941595955098062E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4099353988975272E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ω-Ωr, Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$J$4:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.3010000004432998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1825375000044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49952789999952002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2329088000115001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.49934250001388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.1599761000106801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8994743999937</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.9798377999977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.634357899994903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$M$4:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.2786227277813058E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7406830114450475E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6859738920912407E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6601914448667286E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0490663430700942E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2371488266072831E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7800860297628287E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0302858892389736E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7595774838568071E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$J$4:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.43963000000439E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0811300000059405E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.278286499999921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34852779999982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4675864000000702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2447105999999604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.2272619000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.248320700000399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$M$4:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.5768774530767962E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.102720916205055E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3096512564230669E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6612197812137372E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.355786048835508E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9199775556979629E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4563820036834615E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4767976502183613E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$J$4:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.43963000000439E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0811300000059405E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.278286499999921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34852779999982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4675864000000702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2447105999999604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.2272619000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.248320700000399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.547902600000199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3'!$M$4:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.5768774530767962E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.102720916205055E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3096512564230669E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6612197812137372E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.355786048835508E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9199775556979629E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4563820036834615E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4767976502183613E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9138065480243608E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3 *</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$J$4:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.2421100000210499E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.66641999984858E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59422930000073304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.65843629999835</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4675864000000702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8307014999991207</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.755029300000299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.513065700000801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86.012395999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>192.996431999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398.26797329999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$M$4:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.11738697990373932</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11091128784774282</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5631519190721427E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5971897340707458E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.182808764295937E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4043962095806203E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.6896827443473975E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4235762616769521E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6754205336579584E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.238340594046468E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2609413112317409E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="144244096"/>
-        <c:axId val="145372672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="144244096"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-                  <a:t>Calculation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="0"/>
-                  <a:t> time (sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145372672"/>
-        <c:crossesAt val="1.000000000000005E-5"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="145372672"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-                  <a:t>Relative error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144244096"/>
-        <c:crossesAt val="1.0000000000000037E-3"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75931687013237792"/>
-          <c:y val="0.27834025411002727"/>
-          <c:w val="0.22597188330691889"/>
-          <c:h val="0.37485309672111883"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ja-JP"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Bz0</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18634397219684601"/>
-          <c:y val="0.17579667153794187"/>
-          <c:w val="0.68741535199559134"/>
-          <c:h val="0.64033145665952429"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Order 2</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 2'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 2'!$K$4:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.95709967048797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8099849565596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3343214758592001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.43331070673606</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3408002701205901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3404760798247999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3394950495788001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6430729049166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.33894395822582</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.59367125758371</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5929650345045001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5929399886819802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 3'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 3'!$L$4:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.5529638523933502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5920552230356999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5229379893396802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5190557422211701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5173157766182199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5166561623531298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5174526286037602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5190235622558399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5276257384788998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5129071971919301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5128922131870999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Order 4</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Order 4'!$C$4:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Order 4'!$K$4:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.5446655134443499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5333154752270999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5167795326614799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5146256201818198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5138140768984099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5134401389018799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5119164528565698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.51188020575563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5130658118776701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A-Ar, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$K$4:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.48605301420098</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5522485054505402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5488924496844798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.49930372527492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5084492445136299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.50457386086399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5051442524220602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5158458463991802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>A-Ωr, Order 3</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'A-Or, Order 3, type1'!$K$4:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.48605301420098</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5522485054505402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5488924496844798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.49930372527492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5084492445136299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.50457386086399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5051442524220602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5158458463991802</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5157723730334398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5146110062576099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5148750588512798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="145495168"/>
-        <c:axId val="145497088"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="145495168"/>
+        <c:axId val="134549504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5162,12 +1673,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145497088"/>
+        <c:crossAx val="134551424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145497088"/>
+        <c:axId val="134551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.6"/>
@@ -5204,7 +1715,3484 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145495168"/>
+        <c:crossAx val="134549504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43537656102595768"/>
+          <c:y val="0.4908874463211183"/>
+          <c:w val="0.2491696322657177"/>
+          <c:h val="0.30675001502674776"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Wm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21746994703953851"/>
+          <c:y val="0.18262829451006168"/>
+          <c:w val="0.66422483444018232"/>
+          <c:h val="0.62528536472003449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14210.1850195037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13067.8183128491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12435.175853829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12192.2114200222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12090.422494762501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12048.3721045903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12029.268694161299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12022.3915165459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12016.782074774699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12014.987776393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12013.735210926699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12013.0579397689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12862.8876232519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12417.034256237601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12171.3215108517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12077.2758028839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12038.741366169899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12023.4882338568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12017.050284168299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12015.0301471615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12013.595765173101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12012.8159439801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12012.469485778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$L$4:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12406.014063582001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12221.2739765642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12092.493121867101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12044.1346984702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12024.7815737449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12017.2697394392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12014.3182713805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12013.4175979553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12012.751729014601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Ar, Order 3'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Ar, Order 3'!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11414.1760035426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11633.1341877378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11850.8446768465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11942.808034556399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11982.6512901196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11999.1821781654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12005.7442245599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12008.431435292399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="134582656"/>
+        <c:axId val="134584576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134582656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Refine</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134584576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134584576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Wm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> (J)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134582656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59271606840959823"/>
+          <c:y val="0.2022965879265092"/>
+          <c:w val="0.2491696322657177"/>
+          <c:h val="0.313939468503937"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Wm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5637000001333899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3242999997564697E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.58935000001656E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7198100000041394E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121404900000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24188890000004901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78485809999983702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5160475999996299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1388543000002702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6583233999999702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.4655526999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.409071200000199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18298135887937911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7880660533649985E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.521391236469977E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49874061179736E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5135965963297607E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0129505710287394E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4226138936728318E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5009686384152918E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.831173670973003E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3374411580575594E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2946949901676018E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3087463632706405E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.9699999945005402E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0174099995056098E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19010100000013999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29051130000152597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59830800000054296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.15991099999519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.34856350001064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8273952000017699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5072265999915508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.666961099996101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.489217900001599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$N$4:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.082041921215794E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3703645486298117E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3248345500292155E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4191498032746368E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2112028099727922E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4139730313732748E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0544548685574928E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.372714329538843E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1786080237727257E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2941595955098062E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4099353988975272E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3010000004432998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1825375000044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49952789999952002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2329088000115001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.49934250001388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1599761000106801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8994743999937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.9798377999977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.634357899994903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.2786227277813058E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7406830114450475E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6859738920912407E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6601914448667286E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0490663430700942E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2371488266072831E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7800860297628287E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0302858892389736E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7595774838568071E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Ar, Order 3'!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8839000000298201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12485960000049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34572230000048798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37257060000047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.56818099999873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5365715999978402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0611489999973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.175192299997398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Ar, Order 3'!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9783136487914825E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1555122572439004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3430977820304075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7751353579117912E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4582307191867029E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0820535352117993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3577081263357434E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.120636476976671E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="134632192"/>
+        <c:axId val="134634112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134632192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>Calculation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="0"/>
+                  <a:t> time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134634112"/>
+        <c:crossesAt val="1.0000000000000028E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134634112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+                  <a:t>Relative error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134632192"/>
+        <c:crossesAt val="1.0000000000000022E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62080639480767752"/>
+          <c:y val="4.2021846149828283E-2"/>
+          <c:w val="0.22369542066027689"/>
+          <c:h val="0.2998824773768955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Bz0</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18634397219684617"/>
+          <c:y val="0.17579667153794204"/>
+          <c:w val="0.48959817096532782"/>
+          <c:h val="0.64033145665952573"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.95709967048797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8099849565596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3343214758592001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.43331070673606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3408002701205901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3404760798247999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3394950495788001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6430729049166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33894395822582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.59367125758371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5929650345045001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5929399886819802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$L$4:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.5529638523933502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5920552230356999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5229379893396802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5190557422211701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5173157766182199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5166561623531298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5174526286037602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5190235622558399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5276257384788998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5129071971919301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5128922131870999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5446655134443499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5333154752270999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5167795326614799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5146256201818198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5138140768984099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5134401389018799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5119164528565698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.51188020575563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5130658118776701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.48150912352604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4942751210830201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.50849086910653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5127541816034298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5151094727676502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.51581869585889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5138565509196602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.51480290073789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.48150912352604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4942751210830201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.50849086910653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5127541816034298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5151094727676502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.51581869585889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5138565509196602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.51480290073789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5138978010084498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3 *</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.48605301420098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5522485054505402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5488924496844798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49930372527492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5084492445136299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.50457386086399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5051442524220602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5158458463991802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5157723730334398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5146110062576099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5148750588512798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="134728704"/>
+        <c:axId val="134747264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134728704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Refine no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134747264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134747264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
+          <c:min val="3.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Bz0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                  <a:t>　（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>T)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134728704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68212824010914064"/>
+          <c:y val="0.36366098321679274"/>
+          <c:w val="0.25170533621019719"/>
+          <c:h val="0.38343751878343452"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Wm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21746994703953879"/>
+          <c:y val="0.18262829451006202"/>
+          <c:w val="0.48565335583052116"/>
+          <c:h val="0.62528536472003449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14210.1850195037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13067.8183128491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12435.175853829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12192.2114200222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12090.422494762501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12048.3721045903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12029.268694161299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12022.3915165459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12016.782074774699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12014.987776393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12013.735210926699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12013.0579397689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12862.8876232519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12417.034256237601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12171.3215108517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12077.2758028839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12038.741366169899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12023.4882338568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12017.050284168299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12015.0301471615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12013.595765173101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12012.8159439801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12012.469485778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$L$4:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12406.014063582001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12221.2739765642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12092.493121867101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12044.1346984702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12024.7815737449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12017.2697394392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12014.3182713805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12013.4175979553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12012.751729014601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11462.397241957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11639.4755786478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11854.8623337062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11944.1764089685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11983.881873939899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000.2639444005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12006.8269137223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12009.2048260802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$L$4:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11462.397241957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11639.4755786478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11854.8623337062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11944.1764089685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11983.881873939899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000.2639444005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12006.8269137223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12009.2048260802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12010.9891357126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3 *</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$L$4:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13422.2535322601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13344.4663536589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12560.3140221924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12204.0373057981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12086.449011782301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12041.0620400608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12023.8194213268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12018.694897429899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12015.3937633026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12013.6675170117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12012.81195374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="134780032"/>
+        <c:axId val="134781952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134780032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Refine</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134781952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134781952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Wm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                  <a:t> (J)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134780032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71863174555103693"/>
+          <c:y val="0.19361603237095368"/>
+          <c:w val="0.25170533621019719"/>
+          <c:h val="0.39242433562992229"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Wm</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5637000001333899E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3242999997564697E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.58935000001656E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7198100000041394E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121404900000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24188890000004901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78485809999983702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5160475999996299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1388543000002702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6583233999999702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.4655526999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.409071200000199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18298135887937911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7880660533649985E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.521391236469977E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49874061179736E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5135965963297607E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0129505710287394E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4226138936728318E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5009686384152918E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.831173670973003E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3374411580575594E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2946949901676018E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3087463632706405E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.9699999945005402E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0174099995056098E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19010100000013999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29051130000152597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59830800000054296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.15991099999519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.34856350001064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8273952000017699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5072265999915508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.666961099996101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.489217900001599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$N$4:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.082041921215794E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3703645486298117E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3248345500292155E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4191498032746368E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2112028099727922E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4139730313732748E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0544548685574928E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.372714329538843E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1786080237727257E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2941595955098062E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4099353988975272E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ω-Ωr, Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3010000004432998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1825375000044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49952789999952002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2329088000115001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.49934250001388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1599761000106801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8994743999937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.9798377999977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.634357899994903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.2786227277813058E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7406830114450475E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6859738920912407E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6601914448667286E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0490663430700942E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2371488266072831E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7800860297628287E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0302858892389736E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7595774838568071E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.43963000000439E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0811300000059405E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.278286499999921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34852779999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4675864000000702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2447105999999604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2272619000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.248320700000399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5768774530767962E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.102720916205055E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3096512564230669E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6612197812137372E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.355786048835508E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9199775556979629E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4563820036834615E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4767976502183613E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.43963000000439E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0811300000059405E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.278286499999921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34852779999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4675864000000702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2447105999999604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2272619000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.248320700000399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.547902600000199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3'!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.5768774530767962E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.102720916205055E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3096512564230669E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6612197812137372E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.355786048835508E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9199775556979629E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4563820036834615E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4767976502183613E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9138065480243608E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3 *</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2421100000210499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.66641999984858E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59422930000073304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65843629999835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4675864000000702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8307014999991207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.755029300000299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.513065700000801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.012395999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192.996431999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>398.26797329999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$M$4:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.11738697990373932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11091128784774282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5631519190721427E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5971897340707458E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.182808764295937E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4043962095806203E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6896827443473975E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4235762616769521E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6754205336579584E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.238340594046468E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2609413112317409E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="134888448"/>
+        <c:axId val="134898816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134888448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+                  <a:t>Calculation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="0"/>
+                  <a:t> time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134898816"/>
+        <c:crossesAt val="1.0000000000000053E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134898816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+                  <a:t>Relative error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134888448"/>
+        <c:crossesAt val="1.0000000000000039E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75931687013237792"/>
+          <c:y val="0.27834025411002727"/>
+          <c:w val="0.22597188330691889"/>
+          <c:h val="0.37485309672111883"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Bz0</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18634397219684604"/>
+          <c:y val="0.17579667153794193"/>
+          <c:w val="0.68741535199559134"/>
+          <c:h val="0.64033145665952462"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Order 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 2'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 2'!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.95709967048797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8099849565596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3343214758592001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.43331070673606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3408002701205901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3404760798247999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3394950495788001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6430729049166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33894395822582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.59367125758371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5929650345045001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5929399886819802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 3'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 3'!$L$4:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.5529638523933502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5920552230356999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5229379893396802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5190557422211701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5173157766182199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5166561623531298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5174526286037602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5190235622558399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5276257384788998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5129071971919301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5128922131870999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Order 4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Order 4'!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Order 4'!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5446655134443499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5333154752270999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5167795326614799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5146256201818198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5138140768984099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5134401389018799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5119164528565698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.51188020575563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5130658118776701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A-Ar, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.48605301420098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5522485054505402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5488924496844798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49930372527492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5084492445136299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.50457386086399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5051442524220602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5158458463991802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A-Ωr, Order 3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A-Or, Order 3, type1'!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.48605301420098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5522485054505402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5488924496844798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49930372527492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5084492445136299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.50457386086399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5051442524220602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5158458463991802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5157723730334398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5146110062576099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5148750588512798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="179344128"/>
+        <c:axId val="179346048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179344128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Refine no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179346048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179346048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
+          <c:min val="3.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>Bz0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                  <a:t>　（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>T)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179344128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5223,8 +5211,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.45020455628099865"/>
-          <c:y val="0.55450067787328139"/>
-          <c:w val="0.25170533621019764"/>
+          <c:y val="0.5545006778732815"/>
+          <c:w val="0.25170533621019758"/>
           <c:h val="0.38343751878343452"/>
         </c:manualLayout>
       </c:layout>
@@ -5233,7 +5221,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5267,9 +5255,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21746994703953859"/>
-          <c:y val="0.18262829451006182"/>
-          <c:w val="0.66422483444018321"/>
+          <c:x val="0.21746994703953862"/>
+          <c:y val="0.18262829451006188"/>
+          <c:w val="0.66422483444018354"/>
           <c:h val="0.62528536472003449"/>
         </c:manualLayout>
       </c:layout>
@@ -5706,11 +5694,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="145545472"/>
-        <c:axId val="145428864"/>
+        <c:axId val="147998592"/>
+        <c:axId val="148013056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145545472"/>
+        <c:axId val="147998592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5741,12 +5729,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145428864"/>
+        <c:crossAx val="148013056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145428864"/>
+        <c:axId val="148013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -5779,7 +5767,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145545472"/>
+        <c:crossAx val="147998592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5799,8 +5787,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.59271606840959823"/>
           <c:y val="0.2022965879265092"/>
-          <c:w val="0.25170533621019764"/>
-          <c:h val="0.39242433562992163"/>
+          <c:w val="0.25170533621019758"/>
+          <c:h val="0.39242433562992179"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5808,7 +5796,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5842,9 +5830,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21746994703953834"/>
-          <c:y val="0.18262829451006146"/>
-          <c:w val="0.66422483444018066"/>
+          <c:x val="0.21746994703953837"/>
+          <c:y val="0.18262829451006149"/>
+          <c:w val="0.66422483444018099"/>
           <c:h val="0.62528536472003449"/>
         </c:manualLayout>
       </c:layout>
@@ -6020,11 +6008,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141299072"/>
-        <c:axId val="141329920"/>
+        <c:axId val="130399616"/>
+        <c:axId val="131208704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141299072"/>
+        <c:axId val="130399616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6055,12 +6043,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141329920"/>
+        <c:crossAx val="131208704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141329920"/>
+        <c:axId val="131208704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6091,7 +6079,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141299072"/>
+        <c:crossAx val="130399616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,8 +6099,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.58381933508311468"/>
           <c:y val="0.28910214348206481"/>
-          <c:w val="0.18134638196915787"/>
-          <c:h val="0.15696973425196867"/>
+          <c:w val="0.18134638196915792"/>
+          <c:h val="0.15696973425196875"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -6120,7 +6108,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6583,11 +6571,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="145461248"/>
-        <c:axId val="145463168"/>
+        <c:axId val="148024704"/>
+        <c:axId val="151135744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145461248"/>
+        <c:axId val="148024704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6619,12 +6607,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145463168"/>
-        <c:crossesAt val="1.0000000000000038E-5"/>
+        <c:crossAx val="151135744"/>
+        <c:crossesAt val="1.0000000000000043E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145463168"/>
+        <c:axId val="151135744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6653,8 +6641,8 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145461248"/>
-        <c:crossesAt val="1.0000000000000028E-3"/>
+        <c:crossAx val="148024704"/>
+        <c:crossesAt val="1.0000000000000031E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -6665,9 +6653,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.73262748106965869"/>
-          <c:y val="0.29906993901881673"/>
+          <c:y val="0.29906993901881684"/>
           <c:w val="0.22597188330691889"/>
-          <c:h val="0.36656122275760311"/>
+          <c:h val="0.36656122275760317"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6680,7 +6668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6716,10 +6704,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18634397219684576"/>
-          <c:y val="0.17579667153794154"/>
+          <c:x val="0.18634397219684579"/>
+          <c:y val="0.17579667153794157"/>
           <c:w val="0.68741535199559134"/>
-          <c:h val="0.64033145665952196"/>
+          <c:h val="0.64033145665952229"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6791,11 +6779,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136857088"/>
-        <c:axId val="136859008"/>
+        <c:axId val="151263488"/>
+        <c:axId val="151257472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136857088"/>
+        <c:axId val="151263488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6823,12 +6811,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136859008"/>
+        <c:crossAx val="151257472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136859008"/>
+        <c:axId val="151257472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6864,7 +6852,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136857088"/>
+        <c:crossAx val="151263488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6882,9 +6870,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53324125230202635"/>
-          <c:y val="0.31277037392486695"/>
-          <c:w val="0.14776108947235714"/>
+          <c:x val="0.53324125230202646"/>
+          <c:y val="0.31277037392486712"/>
+          <c:w val="0.14776108947235719"/>
           <c:h val="7.6687503756686898E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -6893,7 +6881,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6924,8 +6912,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1597414652436738"/>
-          <c:y val="2.9093931837073983E-2"/>
+          <c:x val="0.15974146524367383"/>
+          <c:y val="2.909393183707399E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -6935,10 +6923,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22209716991897749"/>
-          <c:y val="0.17488580315635352"/>
+          <c:x val="0.22209716991897746"/>
+          <c:y val="0.17488580315635355"/>
           <c:w val="0.57893197801494323"/>
-          <c:h val="0.63285847062134692"/>
+          <c:h val="0.63285847062134704"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7147,12 +7135,78 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="160125312"/>
-        <c:axId val="159946624"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>rk=100</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Kelvin Order 3'!$C$37:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Kelvin Order 3'!$M$37:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12930.336885164899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12486.254981070881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12239.552215297759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12144.80653212118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12105.8272665529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12090.341375648801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12084.13053272724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="151297024"/>
+        <c:axId val="151311488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160125312"/>
+        <c:axId val="151297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,12 +7237,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159946624"/>
+        <c:crossAx val="151311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159946624"/>
+        <c:axId val="151311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7215,7 +7269,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160125312"/>
+        <c:crossAx val="151297024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7235,9 +7289,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.53498838559814166"/>
-          <c:y val="0.31863320700872488"/>
-          <c:w val="0.15734162226169332"/>
-          <c:h val="0.22717227871641674"/>
+          <c:y val="0.31863320700872483"/>
+          <c:w val="0.17235050325636472"/>
+          <c:h val="0.30289637162188898"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -7245,7 +7299,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7586,11 +7640,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63800448"/>
-        <c:axId val="64127744"/>
+        <c:axId val="151252352"/>
+        <c:axId val="151324160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63800448"/>
+        <c:axId val="151252352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7623,12 +7677,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64127744"/>
-        <c:crossesAt val="1.0000000000000057E-5"/>
+        <c:crossAx val="151324160"/>
+        <c:crossesAt val="1.000000000000006E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64127744"/>
+        <c:axId val="151324160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7658,7 +7712,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63800448"/>
+        <c:crossAx val="151252352"/>
         <c:crossesAt val="1.0000000000000041E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7671,8 +7725,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.75931687013237792"/>
           <c:y val="0.27834025411002727"/>
-          <c:w val="0.19466394187102634"/>
-          <c:h val="0.30831906881205068"/>
+          <c:w val="0.19466394187102637"/>
+          <c:h val="0.30831906881205079"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -7685,7 +7739,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -7717,7 +7771,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44269972895077486"/>
+          <c:x val="0.44269972895077481"/>
           <c:y val="3.4100596760443309E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -8188,11 +8242,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155576960"/>
-        <c:axId val="150633088"/>
+        <c:axId val="151381888"/>
+        <c:axId val="155062272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155576960"/>
+        <c:axId val="151381888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8225,12 +8279,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150633088"/>
-        <c:crossesAt val="1.0000000000000063E-5"/>
+        <c:crossAx val="155062272"/>
+        <c:crossesAt val="1.0000000000000065E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150633088"/>
+        <c:axId val="155062272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8260,7 +8314,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155576960"/>
+        <c:crossAx val="151381888"/>
         <c:crossesAt val="1.0000000000000041E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8274,7 +8328,7 @@
           <c:x val="0.75931687013237792"/>
           <c:y val="0.27834025411002727"/>
           <c:w val="0.22278850745571988"/>
-          <c:h val="0.45094547096824866"/>
+          <c:h val="0.45094547096824872"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8287,7 +8341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -8490,11 +8544,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141351168"/>
-        <c:axId val="141959552"/>
+        <c:axId val="131258624"/>
+        <c:axId val="131285376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141351168"/>
+        <c:axId val="131258624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8526,12 +8580,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141959552"/>
-        <c:crossesAt val="1.0000000000000011E-5"/>
+        <c:crossAx val="131285376"/>
+        <c:crossesAt val="1.0000000000000014E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141959552"/>
+        <c:axId val="131285376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8560,8 +8614,8 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141351168"/>
-        <c:crossesAt val="1.0000000000000009E-3"/>
+        <c:crossAx val="131258624"/>
+        <c:crossesAt val="1.0000000000000011E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -8572,7 +8626,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8607,10 +8661,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18634397219684568"/>
-          <c:y val="0.17579667153794148"/>
+          <c:x val="0.18634397219684573"/>
+          <c:y val="0.17579667153794151"/>
           <c:w val="0.68741535199559134"/>
-          <c:h val="0.6403314566595214"/>
+          <c:h val="0.64033145665952174"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8706,11 +8760,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142000896"/>
-        <c:axId val="142002816"/>
+        <c:axId val="131302144"/>
+        <c:axId val="131304064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142000896"/>
+        <c:axId val="131302144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8738,12 +8792,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142002816"/>
+        <c:crossAx val="131304064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142002816"/>
+        <c:axId val="131304064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8779,7 +8833,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142000896"/>
+        <c:crossAx val="131302144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8797,9 +8851,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53324125230202613"/>
-          <c:y val="0.31277037392486662"/>
-          <c:w val="0.14776108947235703"/>
+          <c:x val="0.53324125230202624"/>
+          <c:y val="0.31277037392486678"/>
+          <c:w val="0.14776108947235708"/>
           <c:h val="7.6687503756686898E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -8808,7 +8862,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8843,10 +8897,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21746994703953829"/>
-          <c:y val="0.18262829451006138"/>
-          <c:w val="0.66422483444017999"/>
-          <c:h val="0.62528536472003471"/>
+          <c:x val="0.21746994703953831"/>
+          <c:y val="0.18262829451006143"/>
+          <c:w val="0.66422483444018032"/>
+          <c:h val="0.6252853647200346"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8942,11 +8996,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142015104"/>
-        <c:axId val="142041856"/>
+        <c:axId val="131316352"/>
+        <c:axId val="131371776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142015104"/>
+        <c:axId val="131316352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8978,12 +9032,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142041856"/>
+        <c:crossAx val="131371776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142041856"/>
+        <c:axId val="131371776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9015,7 +9069,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142015104"/>
+        <c:crossAx val="131316352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9035,7 +9089,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.58381933508311468"/>
           <c:y val="0.28910214348206481"/>
-          <c:w val="0.14776108947235703"/>
+          <c:w val="0.14776108947235708"/>
           <c:h val="7.8484867125984292E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9044,7 +9098,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9074,7 +9128,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42294842158491686"/>
+          <c:x val="0.42294842158491691"/>
           <c:y val="2.3419203747072601E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9086,8 +9140,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16705867411734823"/>
-          <c:y val="0.18298866165219294"/>
-          <c:w val="0.68528680890695048"/>
+          <c:y val="0.18298866165219296"/>
+          <c:w val="0.68528680890695037"/>
           <c:h val="0.62632657494994337"/>
         </c:manualLayout>
       </c:layout>
@@ -9184,11 +9238,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142046336"/>
-        <c:axId val="142064256"/>
+        <c:axId val="131474176"/>
+        <c:axId val="131476096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142046336"/>
+        <c:axId val="131474176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9219,12 +9273,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142064256"/>
+        <c:crossAx val="131476096"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142064256"/>
+        <c:axId val="131476096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9253,7 +9307,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142046336"/>
+        <c:crossAx val="131474176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9265,8 +9319,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.63257464512971162"/>
-          <c:y val="0.3770918058319635"/>
-          <c:w val="0.14632224168126104"/>
+          <c:y val="0.37709180583196356"/>
+          <c:w val="0.14632224168126107"/>
           <c:h val="7.6299212598425203E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9275,7 +9329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9377,11 +9431,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142175232"/>
-        <c:axId val="142185216"/>
+        <c:axId val="131603072"/>
+        <c:axId val="131670400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142175232"/>
+        <c:axId val="131603072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9389,12 +9443,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142185216"/>
+        <c:crossAx val="131670400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142185216"/>
+        <c:axId val="131670400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9403,7 +9457,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142175232"/>
+        <c:crossAx val="131603072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9416,7 +9470,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9464,9 +9518,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.20130796150481189"/>
-          <c:y val="0.20140055409740451"/>
-          <c:w val="0.64294903762029776"/>
-          <c:h val="0.58444808982210539"/>
+          <c:y val="0.20140055409740454"/>
+          <c:w val="0.64294903762029809"/>
+          <c:h val="0.58444808982210528"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9559,11 +9613,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142487552"/>
-        <c:axId val="142489472"/>
+        <c:axId val="131685760"/>
+        <c:axId val="131794432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142487552"/>
+        <c:axId val="131685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9591,12 +9645,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142489472"/>
+        <c:crossAx val="131794432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142489472"/>
+        <c:axId val="131794432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9626,7 +9680,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142487552"/>
+        <c:crossAx val="131685760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9642,7 +9696,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9676,10 +9730,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18634397219684581"/>
-          <c:y val="0.17579667153794162"/>
+          <c:x val="0.18634397219684584"/>
+          <c:y val="0.17579667153794168"/>
           <c:w val="0.68741535199559134"/>
-          <c:h val="0.64033145665952262"/>
+          <c:h val="0.64033145665952285"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9951,11 +10005,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142254464"/>
-        <c:axId val="142256384"/>
+        <c:axId val="146534400"/>
+        <c:axId val="146536320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142254464"/>
+        <c:axId val="146534400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9982,12 +10036,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142256384"/>
+        <c:crossAx val="146536320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142256384"/>
+        <c:axId val="146536320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10022,7 +10076,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142254464"/>
+        <c:crossAx val="146534400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10040,9 +10094,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53324132970923099"/>
-          <c:y val="0.19402569907769168"/>
-          <c:w val="0.18134638196915784"/>
+          <c:x val="0.53324132970923088"/>
+          <c:y val="0.19402569907769171"/>
+          <c:w val="0.18134638196915787"/>
           <c:h val="0.23006251127006072"/>
         </c:manualLayout>
       </c:layout>
@@ -10051,7 +10105,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10198,15 +10252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10227,16 +10281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10257,16 +10311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10283,6 +10337,44 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454679</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659380" y="6895472"/>
+          <a:ext cx="3373139" cy="2295125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10757,16 +10849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12009,7 +12101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -14194,10 +14286,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:O34"/>
+  <dimension ref="C1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14503,6 +14595,7 @@
         <f t="shared" si="0"/>
         <v>2.9865432354451906E-4</v>
       </c>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="3:15" ht="15">
       <c r="K11" s="1"/>
@@ -15056,7 +15149,7 @@
         <v>8.4495838105954583E-4</v>
       </c>
     </row>
-    <row r="33" spans="3:13" ht="15">
+    <row r="33" spans="3:14" ht="15">
       <c r="C33">
         <v>6</v>
       </c>
@@ -15090,17 +15183,335 @@
         <v>3.1873951120029017E-4</v>
       </c>
     </row>
-    <row r="34" spans="3:13" ht="15">
+    <row r="34" spans="3:14" ht="15">
       <c r="C34">
         <v>7</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="3:14" ht="15">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1">
+        <v>12080</v>
+      </c>
+      <c r="M35" s="1">
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15">
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="15">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>88</v>
+      </c>
+      <c r="E37" s="1">
+        <v>198</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1023</v>
+      </c>
+      <c r="G37" s="1">
+        <v>35741</v>
+      </c>
+      <c r="H37" s="1">
+        <v>58322.712199399699</v>
+      </c>
+      <c r="I37" s="1">
+        <v>24</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2.9388999973889401E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3.7951601113120899</v>
+      </c>
+      <c r="L37" s="1">
+        <v>6465.1684425824496</v>
+      </c>
+      <c r="M37" s="1">
+        <f>L37*2</f>
+        <v>12930.336885164899</v>
+      </c>
+      <c r="N37">
+        <f>ABS(M37-$L$25)/$L$25</f>
+        <v>7.0392126255372459E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="15">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>243</v>
+      </c>
+      <c r="E38" s="1">
+        <v>903</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4296</v>
+      </c>
+      <c r="G38" s="1">
+        <v>181428</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9121.9209823960391</v>
+      </c>
+      <c r="I38" s="1">
+        <v>32</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.9542599999113001E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3.5303887438874701</v>
+      </c>
+      <c r="L38" s="1">
+        <v>6243.1274905354403</v>
+      </c>
+      <c r="M38" s="1">
+        <f>L38*2</f>
+        <v>12486.254981070881</v>
+      </c>
+      <c r="N38">
+        <f>ABS(M38-$L$25)/$L$25</f>
+        <v>3.3630379227721906E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="15">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>689</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3105</v>
+      </c>
+      <c r="F39" s="1">
+        <v>14460</v>
+      </c>
+      <c r="G39" s="1">
+        <v>650846</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2192.7052480389002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>40</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.9023800008581006E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3.5327459630828999</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6119.7761076488796</v>
+      </c>
+      <c r="M39" s="1">
+        <f>L39*2</f>
+        <v>12239.552215297759</v>
+      </c>
+      <c r="N39">
+        <f>ABS(M39-$L$25)/$L$25</f>
+        <v>1.3207964842529733E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" ht="15">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1078</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5135</v>
+      </c>
+      <c r="F40" s="1">
+        <v>23735</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1086555</v>
+      </c>
+      <c r="H40" s="1">
+        <v>547.48023819544801</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.157588000001851</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.5357874314032198</v>
+      </c>
+      <c r="L40" s="1">
+        <v>6072.4032660605899</v>
+      </c>
+      <c r="M40" s="1">
+        <f>L40*2</f>
+        <v>12144.80653212118</v>
+      </c>
+      <c r="N40">
+        <f>ABS(M40-$L$25)/$L$25</f>
+        <v>5.3647791491042854E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" ht="15">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2877</v>
+      </c>
+      <c r="E41" s="1">
+        <v>14367</v>
+      </c>
+      <c r="F41" s="1">
+        <v>66495</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3096607</v>
+      </c>
+      <c r="H41" s="1">
+        <v>140.06498756479499</v>
+      </c>
+      <c r="I41" s="1">
+        <v>55</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.58723259999533095</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3.5270545416216499</v>
+      </c>
+      <c r="L41" s="1">
+        <v>6052.9136332764501</v>
+      </c>
+      <c r="M41" s="1">
+        <f>L41*2</f>
+        <v>12105.8272665529</v>
+      </c>
+      <c r="N41">
+        <f>ABS(M41-$L$25)/$L$25</f>
+        <v>2.13801875437916E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" ht="15">
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8363</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44085</v>
+      </c>
+      <c r="F42" s="1">
+        <v>202050</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9528120</v>
+      </c>
+      <c r="H42" s="1">
+        <v>36.379070276618897</v>
+      </c>
+      <c r="I42" s="1">
+        <v>77</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.6965189000038601</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3.52167219630573</v>
+      </c>
+      <c r="L42" s="1">
+        <v>6045.1706878244004</v>
+      </c>
+      <c r="M42" s="1">
+        <f>L42*2</f>
+        <v>12090.341375648801</v>
+      </c>
+      <c r="N42">
+        <f>ABS(M42-$L$25)/$L$25</f>
+        <v>8.5607414311264485E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="15">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24191</v>
+      </c>
+      <c r="E43" s="1">
+        <v>129707</v>
+      </c>
+      <c r="F43" s="1">
+        <v>592901</v>
+      </c>
+      <c r="G43" s="1">
+        <v>28124839</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
+        <v>107</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12.518960000001201</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3.5379990126265901</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6042.0652663636201</v>
+      </c>
+      <c r="M43" s="1">
+        <f>L43*2</f>
+        <v>12084.13053272724</v>
+      </c>
+      <c r="N43">
+        <f>ABS(M43-$L$25)/$L$25</f>
+        <v>3.4193151715565225E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15109,7 +15520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
